--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
   <si>
     <t xml:space="preserve">caseNumber</t>
   </si>
@@ -251,47 +251,40 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">    Video clips range from 5/22/1931 at 19:47 to 7/28/1931 at 10:31. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front register. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.
-    This is a bonus paragraph to test if it can maintain formating. Hello world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    On 1931-01-05 forensics examiner Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois.</t>
+    <t xml:space="preserve">Video clips range 1931-05-221931 at 1931-07-28 at 1:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front register. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 1931-01-05 forensics examiner Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Owl DVR-THD80B-82-HIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858A216153238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard</t>
   </si>
   <si>
     <t xml:space="preserve">dvr</t>
   </si>
   <si>
-    <t xml:space="preserve">Night Owl DVR-THD80B-82-HIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">858A216153238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/02/31 11:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hard</t>
-  </si>
-  <si>
     <t xml:space="preserve">7244 Prairie Avenue, Chicago Illinois</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">1931-01-05 00:00:00</t>
+    <t xml:space="preserve">1931-01-05</t>
   </si>
   <si>
     <t xml:space="preserve">Walt Whitman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-07-28 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-08-01 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">on</t>
@@ -352,7 +345,7 @@
     <t xml:space="preserve">Finalized</t>
   </si>
   <si>
-    <t xml:space="preserve">    This was from Al COPONE's car. He used Apple Car play to sync up with his phone.</t>
+    <t xml:space="preserve">This was from Al COPONE's car. He used Apple Car play to sync up with his phone.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -418,8 +411,8 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">    This was from Al COPONE's phone and he gave 193104 as the pincode. This phone contained 176 instant messages between AlCOPONE@gmail.com and 16185551211 (James). 
-    There were message between Al COPONE and his accountant. </t>
+    <t xml:space="preserve">This was from Al COPONE's phone and he gave 193104 as the pincode. This phone contained 176 instant messages between AlCOPONE@gmail.com and 16185551211 (James). 
+There were message between Al COPONE and his accountant. </t>
   </si>
   <si>
     <t xml:space="preserve">phone</t>
@@ -441,9 +434,6 @@
   </si>
   <si>
     <t xml:space="preserve">Verizon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/02/31 02:06 PM</t>
   </si>
   <si>
     <t xml:space="preserve">193104</t>
@@ -504,10 +494,7 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">    This was an empty USB drive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    On 1931-01-05 00:00:00 Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois.</t>
+    <t xml:space="preserve">This was an empty USB drive.</t>
   </si>
   <si>
     <t xml:space="preserve">storage drive</t>
@@ -531,7 +518,7 @@
     <t xml:space="preserve">Draft submitted</t>
   </si>
   <si>
-    <t xml:space="preserve">    This was from Al COPONE's house. He used Quicken and Turbo Tax.</t>
+    <t xml:space="preserve">This was from Al COPONE's house. He used Quicken and Turbo Tax.</t>
   </si>
   <si>
     <t xml:space="preserve">server</t>
@@ -673,10 +660,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,6 +693,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="8">
@@ -791,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -826,6 +820,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -928,10 +930,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -940,20 +942,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.99"/>
@@ -964,10 +967,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="18.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="24"/>
@@ -976,7 +979,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="43" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="14.01"/>
@@ -998,7 +1001,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
@@ -1248,26 +1251,26 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="n">
+        <v>11537.4993055556</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>11537.4993055556</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="9" t="n">
+        <v>11537.6243055556</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="X2" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -1284,100 +1287,100 @@
       <c r="AE2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" s="7" t="s">
-        <v>88</v>
+      <c r="AF2" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>81</v>
+      <c r="AH2" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="9" t="n">
+        <v>11598.6243055556</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA2" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="BJ2" s="7" t="n">
         <v>555</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BL2" s="7" t="n">
         <v>12</v>
       </c>
       <c r="BM2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BN2" s="7"/>
       <c r="BO2" s="7"/>
       <c r="BP2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>70</v>
@@ -1395,50 +1398,50 @@
         <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>11537.5409722222</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>11537.5409722222</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="V3" s="9" t="n">
+        <v>11537.6243055556</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -1448,7 +1451,7 @@
         <v>84</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>86</v>
@@ -1456,32 +1459,32 @@
       <c r="AE3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF3" s="7" t="s">
-        <v>88</v>
+      <c r="AF3" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="7" t="s">
-        <v>81</v>
+      <c r="AH3" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AI3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" s="9" t="n">
+        <v>11598.6243055556</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AN3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
@@ -1489,63 +1492,63 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AU3" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BB3" s="7"/>
       <c r="BC3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BH3" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BI3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BJ3" s="7" t="n">
         <v>555</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BL3" s="7" t="n">
         <v>12</v>
       </c>
       <c r="BM3" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>70</v>
@@ -1563,66 +1566,64 @@
         <v>74</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>139</v>
+      <c r="R4" s="9" t="n">
+        <v>11537.5746759259</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>11537.6243055556</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>86</v>
@@ -1630,106 +1631,106 @@
       <c r="AE4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF4" s="7" t="s">
-        <v>88</v>
+      <c r="AF4" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH4" s="7" t="s">
-        <v>81</v>
+      <c r="AH4" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AI4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="AK4" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AL4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AU4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AZ4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="BA4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BH4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BJ4" s="7" t="n">
         <v>555</v>
       </c>
       <c r="BK4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="BL4" s="7" t="n">
         <v>12</v>
       </c>
       <c r="BM4" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>70</v>
@@ -1747,22 +1748,20 @@
         <v>74</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1782,7 +1781,7 @@
         <v>84</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>86</v>
@@ -1790,27 +1789,27 @@
       <c r="AE5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF5" s="7" t="s">
-        <v>88</v>
+      <c r="AF5" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>81</v>
+      <c r="AH5" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="9" t="n">
+        <v>11598.6243055556</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -1824,17 +1823,17 @@
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="BE5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
@@ -1842,7 +1841,7 @@
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -1850,12 +1849,12 @@
       <c r="BO5" s="7"/>
       <c r="BP5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>70</v>
@@ -1873,58 +1872,56 @@
         <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="9" t="n">
+        <v>11537.6243055556</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>11537.6243055556</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="U6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>11537.6243055556</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>84</v>
@@ -1938,116 +1935,116 @@
       <c r="AE6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF6" s="7" t="s">
-        <v>88</v>
+      <c r="AF6" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH6" s="7" t="s">
-        <v>81</v>
+      <c r="AH6" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AI6" s="7" t="s">
         <v>74</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="AK6" s="9" t="n">
+        <v>11598.6243055556</v>
       </c>
       <c r="AL6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AM6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN6" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="AO6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AX6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AU6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC6" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="BD6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BE6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="BH6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BI6" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BJ6" s="7" t="n">
         <v>555</v>
       </c>
       <c r="BK6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="BL6" s="7" t="n">
         <v>12</v>
       </c>
       <c r="BM6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BN6" s="7"/>
       <c r="BO6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BP6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>70</v>
@@ -2066,11 +2063,9 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2098,8 +2093,8 @@
         <v>86</v>
       </c>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7" t="s">
-        <v>88</v>
+      <c r="AF7" s="10" t="n">
+        <v>11537</v>
       </c>
       <c r="AG7" s="7" t="s">
         <v>74</v>
@@ -2130,7 +2125,7 @@
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
@@ -2138,11 +2133,11 @@
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
@@ -2174,7 +2169,7 @@
       <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -2186,7 +2181,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N1" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>68</v>
@@ -2202,7 +2197,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>71</v>
@@ -2210,487 +2205,487 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="9" t="s">
-        <v>192</v>
+      <c r="N5" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="I7" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="J7" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="L7" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="M7" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="R7" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="S7" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="T7" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
+      <c r="U7" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="V7" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="W7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="Y7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
+      <c r="A9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
+      <c r="A11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
+      <c r="A12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>100</v>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
+      <c r="A13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -251,10 +251,18 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">Video clips range 1931-05-221931 at 1931-07-28 at 1:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front register. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 1931-01-05 forensics examiner Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois.</t>
+    <t xml:space="preserve">Video clips range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front register. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Agent Frank Wilson #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
+Search Warrant Operation  
+On Scene Triage  
+On 1931-01-05, at around 0940 hrs, law enforcement personnel contacted DFE HOLMES stating the location was secured and they were ready for forensic assistance. The entry log was signed upon entry.  
+A computer was on and running at the front room area of the home. The date and time displayed on the monitor was consistent with the current date and time. DFE HOLMES entered a small office behind the front room. A Night Owl Digital Video Recording (DVR) system appeared on, but the display monitor was not showing any of the camera activity. Later, this DVR was labeled as evidence Item 9. A successful attempt to log into the DVR system with a username of “dvr” and a password of “dvr”, provided by Special Investigator Frank WILSON. The date and time of the DVR system was unable to be verified.  
+At around 1349 hrs, a forensic storage drive was plugged into a Compaq computer located under the table at the West end of the table. This computer was labeled as evidence Item 15. Belkasoft RAM Capture (no version information available) forensic software was used to copy the random access memory (RAM) of the computer. At around 1403 hrs, the collection finished and the forensic storage drive was removed.  
+An LGE LM-V600 phone was located in the office. The date and time displayed on the phone was consistent with the current date and time. At around 1420 hrs, the phone was put into airplane mode. This phone was labeled as evidence Item 13.  
+Magnet Forensics Encrypted Disk Detector (version 3.1.0) forensic software was used to check Item 15 for encryption. The search results did not detect any encryption software. The power cable was removed from the back of the computer to disconnect it from the power source and prepare it for evidence collection.  
+Property Inventory and Chain of Custody forms were completed for the seized items. DFE HOLMES transported the seized items to the Chicago Investigations Division Evidence Room, located at 569 North Fifth Street, Chicago, IL. The items were placed into Evidence Intake for secure storage.</t>
   </si>
   <si>
     <t xml:space="preserve">DVR</t>
@@ -665,7 +673,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -693,11 +701,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="8">
@@ -826,7 +829,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,14 +929,14 @@
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -1235,7 +1238,7 @@
       <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -2169,7 +2172,7 @@
       <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="209">
   <si>
     <t xml:space="preserve">caseNumber</t>
   </si>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">Video clips range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front register. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
+    <t xml:space="preserve">Video clips range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front table. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
   </si>
   <si>
     <t xml:space="preserve">Special Agent Frank Wilson #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
@@ -353,7 +353,7 @@
     <t xml:space="preserve">Finalized</t>
   </si>
   <si>
-    <t xml:space="preserve">This was from Al COPONE's car. He used Apple Car play to sync up with his phone.</t>
+    <t xml:space="preserve">The registration located in the glove box of this car had ‘Al COPONE’ listed as the registred owner. Apple Car play was synced to to sync up with 13125551212.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -419,8 +419,34 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">This was from Al COPONE's phone and he gave 193104 as the pincode. This phone contained 176 instant messages between AlCOPONE@gmail.com and 16185551211 (James). 
-There were message between Al COPONE and his accountant. </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">accountant1492@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">phone</t>
@@ -433,9 +459,6 @@
   </si>
   <si>
     <t xml:space="preserve">Android 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13125551212.0</t>
   </si>
   <si>
     <t xml:space="preserve">3525712230469390.0</t>
@@ -526,7 +549,7 @@
     <t xml:space="preserve">Draft submitted</t>
   </si>
   <si>
-    <t xml:space="preserve">This was from Al COPONE's house. He used Quicken and Turbo Tax.</t>
+    <t xml:space="preserve">Quicken and Turbo Tax were both installed on this server.</t>
   </si>
   <si>
     <t xml:space="preserve">server</t>
@@ -673,7 +696,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,6 +721,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -929,14 +959,14 @@
   <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -1587,14 +1617,14 @@
       <c r="N4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="7" t="n">
+        <v>13125551212</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="R4" s="9" t="n">
         <v>11537.5746759259</v>
@@ -1611,22 +1641,22 @@
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>86</v>
@@ -1653,48 +1683,48 @@
         <v>11598.6243055556</v>
       </c>
       <c r="AL4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="AU4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AZ4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BA4" s="7" t="s">
         <v>123</v>
       </c>
       <c r="BB4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="BD4" s="7" t="s">
         <v>98</v>
@@ -1716,13 +1746,13 @@
         <v>555</v>
       </c>
       <c r="BK4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BL4" s="7" t="n">
         <v>12</v>
       </c>
       <c r="BM4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
@@ -1733,7 +1763,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>70</v>
@@ -1754,17 +1784,17 @@
         <v>106</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1809,7 +1839,7 @@
         <v>11598.6243055556</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM5" s="7" t="s">
         <v>89</v>
@@ -1826,14 +1856,14 @@
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
       <c r="BD5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BE5" s="7" t="s">
         <v>125</v>
@@ -1844,7 +1874,7 @@
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -1857,7 +1887,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>70</v>
@@ -1875,23 +1905,23 @@
         <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1912,19 +1942,19 @@
         <v>11537.6243055556</v>
       </c>
       <c r="W6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>84</v>
@@ -1960,7 +1990,7 @@
         <v>88</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN6" s="7" t="s">
         <v>90</v>
@@ -1969,20 +1999,20 @@
         <v>91</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AT6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU6" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="AV6" s="7" t="s">
         <v>93</v>
@@ -1994,19 +2024,19 @@
         <v>95</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BA6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BB6" s="7" t="s">
+      <c r="BC6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="BC6" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="BD6" s="7" t="s">
         <v>98</v>
@@ -2016,7 +2046,7 @@
       </c>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BH6" s="7" t="s">
         <v>101</v>
@@ -2028,7 +2058,7 @@
         <v>555</v>
       </c>
       <c r="BK6" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BL6" s="7" t="n">
         <v>12</v>
@@ -2038,7 +2068,7 @@
       </c>
       <c r="BN6" s="7"/>
       <c r="BO6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BP6" s="7"/>
     </row>
@@ -2047,7 +2077,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>70</v>
@@ -2068,7 +2098,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2136,17 +2166,20 @@
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="accountant1492@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2172,7 +2205,7 @@
       <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -2184,7 +2217,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N1" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>68</v>
@@ -2200,7 +2233,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>71</v>
@@ -2208,7 +2241,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>73</v>
@@ -2216,7 +2249,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>74</v>
@@ -2224,76 +2257,76 @@
     </row>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="V7" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="W7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y7" s="13" t="s">
         <v>66</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2346,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>98</v>
@@ -2338,19 +2371,19 @@
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>98</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>98</v>
@@ -2377,10 +2410,10 @@
         <v>98</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>98</v>
@@ -2406,19 +2439,19 @@
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V9" s="11" t="s">
         <v>98</v>
@@ -2478,19 +2511,19 @@
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V10" s="11" t="s">
         <v>98</v>
@@ -2506,10 +2539,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>98</v>
@@ -2521,10 +2554,10 @@
         <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
@@ -2534,10 +2567,10 @@
         <v>98</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -2546,19 +2579,19 @@
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V11" s="11" t="s">
         <v>98</v>
@@ -2570,10 +2603,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>98</v>
@@ -2644,10 +2677,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>98</v>
@@ -2670,19 +2703,19 @@
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Forensics" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Checklist" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Forensics" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Checklist" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -224,7 +224,10 @@
     <t xml:space="preserve">hostname</t>
   </si>
   <si>
-    <t xml:space="preserve">phoneimei2</t>
+    <t xml:space="preserve">phoneIMEI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone2</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172</t>
@@ -419,34 +422,7 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">accountant1492@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
+    <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com.</t>
   </si>
   <si>
     <t xml:space="preserve">phone</t>
@@ -459,9 +435,6 @@
   </si>
   <si>
     <t xml:space="preserve">Android 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3525712230469390.0</t>
   </si>
   <si>
     <t xml:space="preserve">Verizon</t>
@@ -818,8 +791,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,31 +828,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,1237 +936,1421 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BQ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="43" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="43" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="9" t="n">
+      <c r="M2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="11" t="n">
         <v>11537.4993055556</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="11" t="n">
         <v>11537.4993055556</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="U2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="11" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="X2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AC2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AE2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="12" t="n">
         <v>11537</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="9" t="n">
+      <c r="AG2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="9" t="n">
+      <c r="AI2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AL2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AM2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AN2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7" t="s">
+      <c r="AO2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7" t="s">
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AW2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AX2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA2" s="7" t="s">
+      <c r="AY2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7" t="s">
+      <c r="AZ2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BE2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7" t="s">
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BH2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BJ2" s="7" t="n">
+      <c r="BI2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ2" s="9" t="n">
         <v>555</v>
       </c>
-      <c r="BK2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL2" s="7" t="n">
+      <c r="BK2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="BM2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
+      <c r="BM2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>11537.5409722222</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>11537.5409722222</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>11537.6243055556</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>11537</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>11598.6243055556</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>11598.6243055556</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ3" s="9" t="n">
+        <v>555</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL3" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BM3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>11537.5409722222</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>11537.5409722222</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" s="9" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF3" s="10" t="n">
-        <v>11537</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH3" s="9" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK3" s="9" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ3" s="7" t="n">
-        <v>555</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL3" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN3" s="7"/>
-      <c r="BO3" s="7"/>
-      <c r="BP3" s="7"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="N4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="9" t="n">
         <v>13125551212</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="9" t="n">
+        <v>3525712230469390</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="11" t="n">
         <v>11537.5746759259</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="9" t="n">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="11" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AB4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AD4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AE4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" s="12" t="n">
         <v>11537</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH4" s="9" t="n">
+      <c r="AG4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK4" s="9" t="n">
+      <c r="AI4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK4" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7" t="s">
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7" t="s">
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7" t="s">
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AZ4" s="7" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="BA4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB4" s="7" t="s">
+      <c r="BA4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BC4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BD4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7" t="s">
+      <c r="BD4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BH4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI4" s="7" t="s">
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BJ4" s="7" t="n">
+      <c r="BI4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ4" s="9" t="n">
         <v>555</v>
       </c>
-      <c r="BK4" s="7" t="s">
+      <c r="BK4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BL4" s="7" t="n">
+      <c r="BL4" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BM4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9" t="n">
+        <v>3525716930469390</v>
+      </c>
+      <c r="BQ4" s="9" t="n">
+        <v>13125556912</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="7" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AE5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="12" t="n">
         <v>11537</v>
       </c>
-      <c r="AG5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH5" s="9" t="n">
+      <c r="AG5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="9" t="n">
+      <c r="AI5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AL5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AM5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7" t="s">
+      <c r="AM5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7" t="s">
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="9" t="n">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="11" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="S6" s="9" t="n">
+      <c r="S6" s="11" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="V6" s="9" t="n">
+      <c r="T6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="11" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AB6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AB6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AC6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AD6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AE6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="12" t="n">
         <v>11537</v>
       </c>
-      <c r="AG6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH6" s="9" t="n">
+      <c r="AG6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK6" s="9" t="n">
+      <c r="AI6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK6" s="11" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AN6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AN6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AO6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AU6" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AV6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW6" s="7" t="s">
+      <c r="AV6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AX6" s="7" t="s">
+      <c r="AW6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AY6" s="7" t="s">
+      <c r="AX6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AZ6" s="7" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="BA6" s="7" t="s">
+      <c r="BA6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="BB6" s="7" t="s">
+      <c r="BB6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="BC6" s="7" t="s">
+      <c r="BC6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="BD6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7" t="s">
+      <c r="BD6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="BH6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI6" s="7" t="s">
+      <c r="BH6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BJ6" s="7" t="n">
+      <c r="BI6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ6" s="9" t="n">
         <v>555</v>
       </c>
-      <c r="BK6" s="7" t="s">
+      <c r="BK6" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="BL6" s="7" t="n">
+      <c r="BL6" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="BM6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN6" s="7"/>
-      <c r="BO6" s="7" t="s">
+      <c r="BM6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="BP6" s="7"/>
+      <c r="BP6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="7" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AC7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="10" t="n">
+      <c r="AD7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="12" t="n">
         <v>11537</v>
       </c>
-      <c r="AG7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7" t="s">
+      <c r="AG7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="7" t="s">
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="accountant1492@gmail.com"/>
+    <hyperlink ref="I4" r:id="rId1" display="Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. &quot;AlCAPONE@gmail.com&quot; with a password of &quot;193104&quot; was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -2191,7 +2360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2207,525 +2376,525 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="0" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="1" width="2.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>68</v>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>70</v>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>71</v>
+      <c r="O3" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>73</v>
+      <c r="O4" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>74</v>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13" t="s">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="C11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>98</v>
+      <c r="C12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="C13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Forensics" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Cases" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Checklist" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -791,7 +791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -800,31 +800,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,7 +1043,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ9"/>
+  <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1125,7 +1121,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1335,1015 +1331,945 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="11" t="n">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="10" t="n">
         <v>11537.4993055556</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="10" t="n">
         <v>11537.4993055556</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="11" t="n">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9" t="s">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9" t="s">
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BJ2" s="9" t="n">
+      <c r="BJ2" s="8" t="n">
         <v>555</v>
       </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BK2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="9" t="n">
+      <c r="BL2" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BM2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="10" t="n">
         <v>11537.5409722222</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="10" t="n">
         <v>11537.5409722222</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9" t="s">
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9" t="s">
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9" t="s">
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9" t="s">
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="BD3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BD3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9" t="s">
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BH3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BI3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BJ3" s="9" t="n">
+      <c r="BJ3" s="8" t="n">
         <v>555</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BK3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BL3" s="9" t="n">
+      <c r="BL3" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="BM3" s="10" t="s">
+      <c r="BM3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="8" t="n">
         <v>13125551212</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="8" t="n">
         <v>3525712230469390</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="10" t="n">
         <v>11537.5746759259</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AO4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9" t="s">
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9" t="s">
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AU4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9" t="s">
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BA4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BB4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BC4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="BD4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BD4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9" t="s">
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BH4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BI4" s="9" t="s">
+      <c r="BI4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BJ4" s="9" t="n">
+      <c r="BJ4" s="8" t="n">
         <v>555</v>
       </c>
-      <c r="BK4" s="9" t="s">
+      <c r="BK4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="BL4" s="9" t="n">
+      <c r="BL4" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="BM4" s="10" t="s">
+      <c r="BM4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9" t="n">
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8" t="n">
         <v>3525716930469390</v>
       </c>
-      <c r="BQ4" s="9" t="n">
+      <c r="BQ4" s="8" t="n">
         <v>13125556912</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="11" t="n">
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AM5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9" t="s">
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE5" s="9" t="s">
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9"/>
-      <c r="BK5" s="9" t="s">
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="11" t="n">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9" t="s">
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AU6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AW6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AX6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="AY6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AZ6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BA6" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BB6" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BC6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="BD6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BD6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9" t="s">
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="BH6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BI6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BJ6" s="9" t="n">
+      <c r="BJ6" s="8" t="n">
         <v>555</v>
       </c>
-      <c r="BK6" s="9" t="s">
+      <c r="BK6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BL6" s="9" t="n">
+      <c r="BL6" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="BM6" s="10" t="s">
+      <c r="BM6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9" t="s">
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BP6" s="9"/>
+      <c r="BP6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="12" t="n">
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="11" t="n">
         <v>11537</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9" t="s">
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9" t="s">
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9" t="s">
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="9" t="s">
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="BN7" s="9"/>
-      <c r="BO7" s="9"/>
-      <c r="BP7" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
-      <c r="AM9" s="0"/>
-      <c r="AN9" s="0"/>
-      <c r="AO9" s="0"/>
-      <c r="AP9" s="0"/>
-      <c r="AQ9" s="0"/>
-      <c r="AR9" s="0"/>
-      <c r="AS9" s="0"/>
-      <c r="AT9" s="0"/>
-      <c r="AU9" s="0"/>
-      <c r="AV9" s="0"/>
-      <c r="AW9" s="0"/>
-      <c r="AX9" s="0"/>
-      <c r="AY9" s="0"/>
-      <c r="AZ9" s="0"/>
-      <c r="BA9" s="0"/>
-      <c r="BB9" s="0"/>
-      <c r="BC9" s="0"/>
-      <c r="BD9" s="0"/>
-      <c r="BE9" s="0"/>
-      <c r="BF9" s="0"/>
-      <c r="BG9" s="0"/>
-      <c r="BH9" s="0"/>
-      <c r="BI9" s="0"/>
-      <c r="BJ9" s="0"/>
-      <c r="BK9" s="0"/>
-      <c r="BL9" s="0"/>
-      <c r="BM9" s="0"/>
-      <c r="BN9" s="0"/>
-      <c r="BO9" s="0"/>
-      <c r="BP9" s="0"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2417,7 +2343,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -2425,472 +2351,472 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="V7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="15" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
+      <c r="C10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
+      <c r="C11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="14" t="s">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="210">
   <si>
     <t xml:space="preserve">caseNumber</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">phone2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifyHash</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172</t>
@@ -350,6 +353,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -508,9 +514,6 @@
   </si>
   <si>
     <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172_14</t>
@@ -1043,14 +1046,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="BL1" activeCellId="0" sqref="BL1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="BR3" activeCellId="0" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1329,46 +1332,49 @@
       <c r="BQ1" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="BR1" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1381,172 +1387,175 @@
         <v>11537.4993055556</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF2" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AT2" s="8"/>
       <c r="AU2" s="8"/>
       <c r="AV2" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AZ2" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BH2" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ2" s="8" t="n">
         <v>555</v>
       </c>
       <c r="BK2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BL2" s="8" t="n">
         <v>12</v>
       </c>
       <c r="BM2" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
       <c r="BP2" s="8"/>
+      <c r="BR2" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R3" s="10" t="n">
         <v>11537.5409722222</v>
@@ -1555,59 +1564,59 @@
         <v>11537.5409722222</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V3" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF3" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
@@ -1615,52 +1624,52 @@
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
       <c r="AT3" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AU3" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AV3" s="8"/>
       <c r="AW3" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BB3" s="8"/>
       <c r="BC3" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BF3" s="8"/>
       <c r="BG3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI3" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ3" s="8" t="n">
         <v>555</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BL3" s="8" t="n">
         <v>12</v>
       </c>
       <c r="BM3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BN3" s="8"/>
       <c r="BO3" s="8"/>
@@ -1668,44 +1677,44 @@
     </row>
     <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O4" s="8" t="n">
         <v>13125551212</v>
@@ -1714,135 +1723,135 @@
         <v>3525712230469390</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R4" s="10" t="n">
         <v>11537.5746759259</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V4" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF4" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK4" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BC4" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BD4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE4" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BH4" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI4" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ4" s="8" t="n">
         <v>555</v>
       </c>
       <c r="BK4" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BL4" s="8" t="n">
         <v>12</v>
       </c>
       <c r="BM4" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BN4" s="8"/>
       <c r="BO4" s="8"/>
@@ -1852,44 +1861,47 @@
       <c r="BQ4" s="8" t="n">
         <v>13125556912</v>
       </c>
+      <c r="BR4" s="0" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1906,38 +1918,38 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF5" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
@@ -1951,17 +1963,17 @@
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
@@ -1969,7 +1981,7 @@
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BL5" s="8"/>
       <c r="BM5" s="8"/>
@@ -1979,44 +1991,44 @@
     </row>
     <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -2028,172 +2040,172 @@
         <v>11537.6243055556</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V6" s="10" t="n">
         <v>11537.6243055556</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF6" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK6" s="10" t="n">
         <v>11598.6243055556</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM6" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN6" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO6" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP6" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ6" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AU6" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AV6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW6" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AX6" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AY6" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AZ6" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BA6" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BB6" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BD6" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE6" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BH6" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI6" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ6" s="8" t="n">
         <v>555</v>
       </c>
       <c r="BK6" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BL6" s="8" t="n">
         <v>12</v>
       </c>
       <c r="BM6" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BN6" s="8"/>
       <c r="BO6" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BP6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2212,24 +2224,24 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="11" t="n">
         <v>11537</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -2253,7 +2265,7 @@
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
       <c r="BE7" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BF7" s="8"/>
       <c r="BG7" s="8"/>
@@ -2261,11 +2273,11 @@
       <c r="BI7" s="8"/>
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BL7" s="8"/>
       <c r="BM7" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BN7" s="8"/>
       <c r="BO7" s="8"/>
@@ -2312,10 +2324,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,165 +2335,165 @@
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N5" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y7" s="15" t="s">
         <v>66</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
@@ -2490,206 +2502,206 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -2698,91 +2710,91 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -2794,23 +2806,23 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="220">
   <si>
     <t xml:space="preserve">caseNumber</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">summary</t>
   </si>
   <si>
+    <t xml:space="preserve">tempNotes</t>
+  </si>
+  <si>
     <t xml:space="preserve">exhibitType</t>
   </si>
   <si>
@@ -65,12 +68,36 @@
     <t xml:space="preserve">OS</t>
   </si>
   <si>
+    <t xml:space="preserve">hostname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userPwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emailPwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip</t>
+  </si>
+  <si>
     <t xml:space="preserve">phoneNumber</t>
   </si>
   <si>
     <t xml:space="preserve">phoneIMEI</t>
   </si>
   <si>
+    <t xml:space="preserve">phone2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phoneIMEI2</t>
+  </si>
+  <si>
     <t xml:space="preserve">mobileCarrier</t>
   </si>
   <si>
@@ -89,21 +116,6 @@
     <t xml:space="preserve">shutdownTime</t>
   </si>
   <si>
-    <t xml:space="preserve">userName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userPwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emailPwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
     <t xml:space="preserve">seizureAddress</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t xml:space="preserve">seizedBy</t>
   </si>
   <si>
+    <t xml:space="preserve">seizureStatus</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateReceived</t>
   </si>
   <si>
@@ -134,7 +149,7 @@
     <t xml:space="preserve">inventoryDate</t>
   </si>
   <si>
-    <t xml:space="preserve">seizureStatus</t>
+    <t xml:space="preserve">storageLocation</t>
   </si>
   <si>
     <t xml:space="preserve">status</t>
@@ -149,10 +164,13 @@
     <t xml:space="preserve">imageMD5</t>
   </si>
   <si>
+    <t xml:space="preserve">imageSHA256</t>
+  </si>
+  <si>
     <t xml:space="preserve">imageSHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">imageSHA256</t>
+    <t xml:space="preserve">verifyHash</t>
   </si>
   <si>
     <t xml:space="preserve">writeBlocker</t>
@@ -191,46 +209,28 @@
     <t xml:space="preserve">exportedEvidence</t>
   </si>
   <si>
-    <t xml:space="preserve">storageLocation</t>
+    <t xml:space="preserve">qrCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaultCaseNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaultTotal</t>
   </si>
   <si>
     <t xml:space="preserve">caseNumberOrig</t>
   </si>
   <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
     <t xml:space="preserve">priority</t>
   </si>
   <si>
-    <t xml:space="preserve">operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaultCaseNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qrCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaultTotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tempNotes</t>
-  </si>
-  <si>
     <t xml:space="preserve">temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phoneIMEI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifyHash</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172</t>
@@ -271,91 +271,103 @@
 Property Inventory and Chain of Custody forms were completed for the seized items. DFE HOLMES transported the seized items to the Chicago Investigations Division Evidence Room, located at 569 North Fifth Street, Chicago, IL. The items were placed into Evidence Intake for secure storage.</t>
   </si>
   <si>
-    <t xml:space="preserve">DVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night Owl DVR-THD80B-82-HIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">858A216153238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7244 Prairie Avenue, Chicago Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walt Whitman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not imaged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau Imager 20.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disk to file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau T356789iu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingston 2383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567889.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DVR Examiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th Floor Lab A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illegal Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">referred to AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-172_9</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t xml:space="preserve">DVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Owl DVR-THD80B-82-HIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858A216153238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-08-02 11:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-08-02 14:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7244 Prairie Avenue, Chicago Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walt Whitman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-10-02 14:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th Floor Lab A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not imaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau Imager 20.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disk to file</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">Tableau T356789iu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston 2383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567889.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVR Examiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-172_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referred to AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -380,24 +392,27 @@
     <t xml:space="preserve">OnStar Gen10</t>
   </si>
   <si>
-    <t xml:space="preserve">861536030696002.0</t>
+    <t xml:space="preserve">root</t>
   </si>
   <si>
     <t xml:space="preserve">AT&amp;T</t>
   </si>
   <si>
+    <t xml:space="preserve">1931-08-02 12:59:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">normal</t>
   </si>
   <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">finished imaging</t>
   </si>
   <si>
+    <t xml:space="preserve">returned to subject</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berla iVe 3.5.0.29841</t>
   </si>
   <si>
@@ -416,91 +431,97 @@
     <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex12_AlCapone\Image\</t>
   </si>
   <si>
-    <t xml:space="preserve">returned to subject</t>
+    <t xml:space="preserve">1931-172_12</t>
   </si>
   <si>
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">1931-172_12</t>
-  </si>
-  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com.</t>
   </si>
   <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGE LM-V600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNPVABEZJCL9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verizon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlCOPONE@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imaged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellebrite UFED 7.56.0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advanced logical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad0234829205b9033196ba818f7a872b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a94a8fe5ccb19ba61c4c0873d391e987982fbbd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/02/1931 14:06:48 (-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/31/31 11:48 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123 GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mac_apt.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex1_AlCapone\Image\UFED Apple iPhone X (A1901) 1931_07_31 (002)\EvidenceCollection.ufdx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1931-172_13</t>
+    <t xml:space="preserve">On 1931-01-05, Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. Sherlock Holmes read a copy of the search warrant authorizing the digital forensic analysis of digital computers, -------------- and media.</t>
   </si>
   <si>
     <t xml:space="preserve">Chipset:kona Device Bluetooth Name:V60 ThinQ 5G Encryption Type:FBE Number Of Installed Applications:545 Live encryption state:Hot
 </t>
   </si>
   <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGE LM-V600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNPVABEZJCL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlCOPONE@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3525716930469390.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-08-02 13:47:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellebrite UFED 7.56.0.282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced logical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad0234829205b9033196ba818f7a872b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a94a8fe5ccb19ba61c4c0873d391e987982fbbd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/02/1931 14:06:48 (-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/31/31 11:48 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mac_apt.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex1_AlCapone\Image\UFED Apple iPhone X (A1901) 1931_07_31 (002)\EvidenceCollection.ufdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931-172_13</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -540,6 +561,9 @@
     <t xml:space="preserve">Window 10</t>
   </si>
   <si>
+    <t xml:space="preserve">notCompaq</t>
+  </si>
+  <si>
     <t xml:space="preserve">administrator</t>
   </si>
   <si>
@@ -570,24 +594,21 @@
     <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex10_AlCapone\Image\Ex10.e01</t>
   </si>
   <si>
+    <t xml:space="preserve">1931-172_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">high</t>
   </si>
   <si>
-    <t xml:space="preserve">1931-172_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notCompaq</t>
-  </si>
-  <si>
     <t xml:space="preserve">69</t>
   </si>
   <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
     <t xml:space="preserve">1931-172_69</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
     <t xml:space="preserve">case#</t>
   </si>
   <si>
@@ -639,6 +660,12 @@
     <t xml:space="preserve">digital evidence to agent</t>
   </si>
   <si>
+    <t xml:space="preserve">return evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify hash</t>
+  </si>
+  <si>
     <t xml:space="preserve">MemDump</t>
   </si>
   <si>
@@ -661,21 +688,22 @@
   </si>
   <si>
     <t xml:space="preserve">Arsenal VM (verify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -701,15 +729,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,13 +752,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
@@ -750,6 +771,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
         <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -794,7 +821,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,16 +862,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -888,7 +907,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -916,7 +935,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -936,9 +955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -946,46 +965,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -993,25 +1012,58 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1029,12 +1081,48 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1046,85 +1134,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BR7"/>
+  <dimension ref="A1:BR8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BL1" activeCellId="0" sqref="BL1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR3" activeCellId="0" sqref="BR3"/>
+      <selection pane="bottomRight" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="17.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="43" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="62" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1241,7 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1206,16 +1292,16 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="5" t="s">
@@ -1239,16 +1325,16 @@
       <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="6" t="s">
@@ -1296,19 +1382,19 @@
       <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="7" t="s">
@@ -1317,26 +1403,26 @@
       <c r="BL1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
@@ -1361,13 +1447,13 @@
       <c r="H2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>80</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1376,143 +1462,144 @@
       <c r="M2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="10" t="n">
-        <v>11537.4993055556</v>
-      </c>
-      <c r="S2" s="10" t="n">
-        <v>11537.4993055556</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="10" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="R2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="AB2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="11" t="n">
-        <v>11537</v>
-      </c>
       <c r="AG2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="AS2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT2" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="AU2" s="8"/>
-      <c r="AV2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
       <c r="AX2" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BD2" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF2" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="BG2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ2" s="8" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM2" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="BK2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL2" s="8" t="n">
+      <c r="BN2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BM2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BR2" s="0" t="s">
-        <v>107</v>
-      </c>
+      <c r="BP2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>72</v>
@@ -1529,158 +1616,160 @@
       <c r="G3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>109</v>
+      <c r="H3" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
-        <v>116</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="R3" s="10" t="n">
-        <v>11537.5409722222</v>
-      </c>
-      <c r="S3" s="10" t="n">
-        <v>11537.5409722222</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="10" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="n">
+        <v>861536030696002</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="AB3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="AD3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="11" t="n">
-        <v>11537</v>
-      </c>
       <c r="AG3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK3" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="AO3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
-      <c r="AW3" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
+      <c r="AZ3" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="BA3" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BB3" s="8"/>
       <c r="BC3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
       <c r="BF3" s="8"/>
       <c r="BG3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="BH3" s="8"/>
       <c r="BI3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ3" s="8" t="n">
+        <v>132</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM3" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="BK3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL3" s="8" t="n">
+      <c r="BN3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BM3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN3" s="8"/>
       <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
+      <c r="BP3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>72</v>
@@ -1697,180 +1786,182 @@
       <c r="G4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>13125551212</v>
+      </c>
+      <c r="W4" s="8" t="n">
+        <v>3525712230469390</v>
+      </c>
+      <c r="X4" s="8" t="n">
+        <v>13125556912</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="BM4" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>13125551212</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>3525712230469390</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <v>11537.5746759259</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF4" s="11" t="n">
-        <v>11537</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH4" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK4" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ4" s="8" t="n">
-        <v>555</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="BL4" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="BM4" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8" t="n">
-        <v>3525716930469390</v>
-      </c>
-      <c r="BQ4" s="8" t="n">
-        <v>13125556912</v>
-      </c>
-      <c r="BR4" s="0" t="s">
-        <v>100</v>
-      </c>
+      <c r="BR4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>72</v>
@@ -1887,23 +1978,23 @@
       <c r="G5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>109</v>
+      <c r="H5" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1917,84 +2008,86 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="11" t="n">
-        <v>11537</v>
-      </c>
       <c r="AG5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AM5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
+      <c r="AP5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
-      <c r="AY5" s="8" t="s">
-        <v>151</v>
-      </c>
+      <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
-      <c r="BD5" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="BD5" s="8"/>
       <c r="BE5" s="8" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
       <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
+      <c r="BJ5" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="BK5" s="8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="BL5" s="8"/>
       <c r="BM5" s="8"/>
       <c r="BN5" s="8"/>
       <c r="BO5" s="8"/>
       <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>72</v>
@@ -2012,179 +2105,181 @@
         <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>165</v>
+      <c r="K6" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="10" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="S6" s="10" t="n">
-        <v>11537.6243055556</v>
+        <v>174</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="10" t="n">
-        <v>11537.6243055556</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="8" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="AD6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AF6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF6" s="11" t="n">
-        <v>11537</v>
-      </c>
       <c r="AG6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AM6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK6" s="10" t="n">
-        <v>11598.6243055556</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="AO6" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AP6" s="8" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="AQ6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR6" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="AS6" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="AU6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX6" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AX6" s="8"/>
       <c r="AY6" s="8" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AZ6" s="8" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="BA6" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BB6" s="8" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="BD6" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="BE6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF6" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="BG6" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BH6" s="8" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="BI6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ6" s="8" t="n">
+        <v>186</v>
+      </c>
+      <c r="BJ6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK6" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM6" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="BK6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL6" s="8" t="n">
+      <c r="BN6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BM6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>72</v>
@@ -2205,9 +2300,11 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -2223,34 +2320,36 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="11" t="n">
-        <v>11537</v>
+      <c r="AF7" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="AG7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8" t="s">
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
+      <c r="AQ7" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
@@ -2264,29 +2363,29 @@
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
-      <c r="BE7" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
       <c r="BG7" s="8"/>
       <c r="BH7" s="8"/>
       <c r="BI7" s="8"/>
       <c r="BJ7" s="8"/>
       <c r="BK7" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="BL7" s="8"/>
-      <c r="BM7" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="BM7" s="8"/>
       <c r="BN7" s="8"/>
       <c r="BO7" s="8"/>
       <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BN8" s="1" t="n">
+        <v>555</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. &quot;AlCAPONE@gmail.com&quot; with a password of &quot;193104&quot; was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com."/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2309,22 +2408,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="1" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="1" width="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N1" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>70</v>
@@ -2340,7 +2439,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>73</v>
@@ -2348,487 +2447,467 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="13" t="s">
-        <v>188</v>
+      <c r="N5" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="15" t="s">
+    <row r="7" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="K7" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="W7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="15" t="s">
+      <c r="M7" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="Y7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="15" t="s">
+      <c r="N7" s="13" t="s">
         <v>209</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13" t="s">
+      <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="P8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="s">
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="P9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13" t="s">
+      <c r="A10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="P10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13" t="s">
+      <c r="A11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="P11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13" t="s">
+      <c r="A12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>100</v>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13" t="s">
+      <c r="A13" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -1137,11 +1137,11 @@
   <dimension ref="A1:BR8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,9 +1660,7 @@
       <c r="AA3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="8" t="s">
         <v>86</v>
       </c>
@@ -1842,7 +1840,9 @@
       <c r="AA4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="AB4" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="AC4" s="8" t="s">
         <v>86</v>
       </c>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -1134,14 +1134,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BR8"/>
+  <dimension ref="A1:BR1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2380,11 +2380,16 @@
       <c r="BQ7" s="8"/>
       <c r="BR7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BN8" s="1" t="n">
-        <v>555</v>
-      </c>
-    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">Frank Wilson #345</t>
   </si>
   <si>
-    <t xml:space="preserve">Sherlock Holmes</t>
+    <t xml:space="preserve">DFE Holmes</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Video clips range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front table. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Agent Frank Wilson #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
+    <t xml:space="preserve">Special Agent Frank Wilson #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
 Search Warrant Operation  
 On Scene Triage  
 On 1931-01-05, at around 0940 hrs, law enforcement personnel contacted DFE HOLMES stating the location was secured and they were ready for forensic assistance. The entry log was signed upon entry.  
@@ -350,7 +350,7 @@
     <t xml:space="preserve">6 TB</t>
   </si>
   <si>
-    <t xml:space="preserve">DVR Examiner</t>
+    <t xml:space="preserve">Magnet Witness</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com.</t>
   </si>
   <si>
-    <t xml:space="preserve">On 1931-01-05, Sherlock Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. Sherlock Holmes read a copy of the search warrant authorizing the digital forensic analysis of digital computers, -------------- and media.</t>
+    <t xml:space="preserve">On 1931-01-05, DFE Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE Holmes read a copy of the search warrant authorizing the digital forensic analysis of digital computers, -------------- and media.</t>
   </si>
   <si>
     <t xml:space="preserve">Chipset:kona Device Bluetooth Name:V60 ThinQ 5G Encryption Type:FBE Number Of Installed Applications:545 Live encryption state:Hot
@@ -821,48 +821,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,23 +1142,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BR1048576"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13"/>
@@ -1208,375 +1216,376 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="71" style="2" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BK1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BL1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BO1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BP1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8" t="s">
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="9" t="s">
         <v>109</v>
       </c>
       <c r="BM2" s="1" t="n">
@@ -1585,166 +1594,166 @@
       <c r="BN2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8" t="s">
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BR2" s="8"/>
+      <c r="BR2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8" t="n">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="n">
         <v>861536030696002</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AK3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AO3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AP3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AR3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AS3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8" t="s">
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BA3" s="8" t="s">
+      <c r="BA3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8" t="s">
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8" t="s">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8" t="s">
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BJ3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BJ3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BL3" s="9" t="s">
         <v>109</v>
       </c>
       <c r="BM3" s="1" t="n">
@@ -1753,192 +1762,192 @@
       <c r="BN3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8" t="s">
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BQ3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BR3" s="8"/>
+      <c r="BR3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="8" t="n">
+      <c r="V4" s="9" t="n">
         <v>13125551212</v>
       </c>
-      <c r="W4" s="8" t="n">
+      <c r="W4" s="9" t="n">
         <v>3525712230469390</v>
       </c>
-      <c r="X4" s="8" t="n">
+      <c r="X4" s="9" t="n">
         <v>13125556912</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AI4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AK4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AL4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AM4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AO4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AP4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AR4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AS4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AT4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AU4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AV4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8" t="s">
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BA4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8" t="s">
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BF4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BG4" s="8" t="s">
+      <c r="BG4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BH4" s="8" t="s">
+      <c r="BH4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BI4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BJ4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK4" s="8" t="s">
+      <c r="BJ4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="BL4" s="8" t="s">
+      <c r="BL4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="BM4" s="1" t="n">
@@ -1947,316 +1956,316 @@
       <c r="BN4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8" t="s">
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BQ4" s="8" t="s">
+      <c r="BQ4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BR4" s="8"/>
+      <c r="BR4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AG5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AH5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AK5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AL5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AM5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AN5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8" t="s">
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ5" s="8" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AR5" s="8" t="s">
+      <c r="AR5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8" t="s">
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="8" t="s">
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK5" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8" t="s">
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AD6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AF6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG6" s="8" t="s">
+      <c r="AG6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AK6" s="8" t="s">
+      <c r="AK6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="8" t="s">
+      <c r="AL6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM6" s="8" t="s">
+      <c r="AM6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AN6" s="8" t="s">
+      <c r="AN6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO6" s="8" t="s">
+      <c r="AO6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AP6" s="8" t="s">
+      <c r="AP6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AQ6" s="8" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AR6" s="8" t="s">
+      <c r="AR6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AS6" s="8" t="s">
+      <c r="AS6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AT6" s="8" t="s">
+      <c r="AT6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AU6" s="8" t="s">
+      <c r="AU6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8" t="s">
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8" t="s">
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AZ6" s="8" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="BA6" s="8" t="s">
+      <c r="BA6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="BB6" s="8" t="s">
+      <c r="BB6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BC6" s="8" t="s">
+      <c r="BC6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BD6" s="8" t="s">
+      <c r="BD6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BE6" s="8" t="s">
+      <c r="BE6" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF6" s="8" t="s">
+      <c r="BF6" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BG6" s="8" t="s">
+      <c r="BG6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="BH6" s="8" t="s">
+      <c r="BH6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="BI6" s="8" t="s">
+      <c r="BI6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="BJ6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK6" s="8" t="s">
+      <c r="BJ6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="BL6" s="8" t="s">
+      <c r="BL6" s="9" t="s">
         <v>109</v>
       </c>
       <c r="BM6" s="1" t="n">
@@ -2265,131 +2274,121 @@
       <c r="BN6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8" t="s">
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BQ6" s="8" t="s">
+      <c r="BQ6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="BR6" s="8"/>
+      <c r="BR6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AH7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8" t="s">
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AL7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8" t="s">
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8" t="s">
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8" t="s">
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="8"/>
-      <c r="BQ7" s="8"/>
-      <c r="BR7" s="8"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2413,504 +2412,504 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="1" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="12" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="12" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="12" width="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11" t="s">
+      <c r="P8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11" t="s">
+      <c r="P9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11" t="s">
+      <c r="P10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11" t="s">
+      <c r="P11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z12" s="11" t="s">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13" t="s">
         <v>100</v>
       </c>
     </row>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="225">
   <si>
     <t xml:space="preserve">caseNumber</t>
   </si>
@@ -239,28 +239,32 @@
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Al Capone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d/b/a Capone Inc</t>
+    <t xml:space="preserve">Al CAPONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d/b/a CAPONE Inc</t>
   </si>
   <si>
     <t xml:space="preserve">tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Frank Wilson #345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFE Holmes</t>
+    <t xml:space="preserve">Frank WILSON #345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFE HOLMES</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">Video clips range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front table. Channel 5, 6, 7 and 8 have no signal. Screenshots of each working camera were taken. If additional image or video or captures are needed they can be acquired up until we return the DVR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Agent Frank Wilson #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
+    <t xml:space="preserve">The videos range from 1931-05-22 at 02:03 to 1931-07-28 at 01:00. There were 4 active cameras being used out of 8 available video inputs. Audio was not recorded by this DVR. Channel 1 shows the kitchen. Channel 2 is behind the bar. Channel 3 is in the kitchen sink area. Channel 4 is over the front table. Channel 5, 6, 7 and 8 have no signal. Screenshots of each camera view were taken, see Figures 1 - 4. Additional DVR analysis is available upon request. A video of sample clips, 1931-172_Ex*9.mp4, was created with OpenShot v3.3.0. The exported video includes a clip of Al CAPONE handing a Chicago Police Department officer an envelope on 1931-05-13 at 13:03:23 (See Figure 2). The video further shows the officer pull out a stack of 100 dollar bills and proceed to count them at the bar. (EXAMINERS NOTE: Al CAPONE was identified by Frank WILSON #345 based on analysis of his drivers license and personal interactions during previous interviews by WILSON. END NOTE)   
+Figure 1: - Camera 1 - Kitchen   
+Figure 2: - Camera 2 – handing the officer an envelope at the bar   
+Figure 3 - Camera 3 – Kitchen sink   
+Figure 4: - Camera 4 – Men playing cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Agent Frank WILSON #345 of the Ministry of Wacky Walks, Bureau of Criminal Investigations, requested an examination of evidence for any information regarding the tax investigation in the Al CAPONE case. On 1931-01-05 Digital Forensic Examiner (DFE) Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE HOLMES read a copy of the search warrant authorizing the digital forensic analysis of digital computers, DVR’s, phones, cars and media.
 Search Warrant Operation  
 On Scene Triage  
 On 1931-01-05, at around 0940 hrs, law enforcement personnel contacted DFE HOLMES stating the location was secured and they were ready for forensic assistance. The entry log was signed upon entry.  
@@ -317,6 +321,9 @@
     <t xml:space="preserve">1931-08-02</t>
   </si>
   <si>
+    <t xml:space="preserve">DFE Holmes</t>
+  </si>
+  <si>
     <t xml:space="preserve">1931-10-02 14:59:00</t>
   </si>
   <si>
@@ -353,6 +360,9 @@
     <t xml:space="preserve">Magnet Witness</t>
   </si>
   <si>
+    <t xml:space="preserve">OpenShot v3.3.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
@@ -428,7 +438,7 @@
     <t xml:space="preserve">Cellebrite Physical Analyzer 8.1.0.7</t>
   </si>
   <si>
-    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex12_AlCapone\Image\</t>
+    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCAPONE\1931-173-2-11_Ex12_AlCAPONE\Image\</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172_12</t>
@@ -440,7 +450,31 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Al CAPONE gave Frank Wilson 193104 as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (James). There were message between AlCOPONE@gmail.com and accountant1492@gmail.com.</t>
+    <t xml:space="preserve">Al CAPONE gave Frank WILSON "193104" as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (Alex) discussing having two ledgers (See Figure 5). One thread from the phone discusses There were message between AlCOPONE@gmail.com and accountant1492@gmail.com. Relevant files were exported. This phone was returned to the owner on 1931-10-02.
+Figure 5 – Ledgers message  
+According to the Cellebrite Preliminary Device Report (Preliminary_Device_Report.pdf), the “Find My” account is registered under the name Al CAPONE, with the associated Apple ID listed as AlCOPONE@gmail.com.  
+A variety of Cellebrite logs were exported:
+  Accounts_Al_Capone_Ex_13.xlsx
+  Calls_1931-172_Al_CaponeEx13.xlsx
+  Chats_1931-172_Al_CaponeEx13.xlsx
+  Contacts_1931-172_Al_CaponeEx13.xlsx
+  Emails_1931-172_Al_CaponeEx13.xlsx
+  Financial_Transfers_1931-172_Al_CaponeEx13.xlsx
+  Journeys_1931-172_Al_CaponeEx13.xlsx
+  Locations_1931-172_Al_CaponeEx13.xlsx
+  Notes_1931-172_Al_CaponeEx13.xlsx
+  Passwords_1931-172_Al_CaponeEx13.xlsx
+  SearchedItems_1931-172_Al_CaponeEx13.xlsx
+  Voicemails_1931-172_Al_CaponeEx13.xlsx
+  WebHistory_1931-172_Al_Capone_Ex_13.xlsx.  
+The image was triaged using ILEAPP 2.3.0. Relevant artifacts and parsed data were extracted and compiled into a spreadsheet titled ILEAPP_Ex_13.xlsx for evidentiary review.
+A consolidated intelligence spreadsheet containing call logs, contacts, account details, notes, search history, GPS coordinates, chat records, and web activity was saved as _Intel_1931-172_Al_Capone_.xlsx_ for investigative reference.  
+A total of 554 call logs were identified. The associated WhatsApp Push Name is listed as Al CAPONE.  
+GPS data was exported as Locations_1931-172_Al_CaponeEx13.xlsx.   (Examiner’s Note: The coordinates were geocoded by DFE HOLMES into physical addresses and, where available, associated business names. This enriched dataset was saved as locations2addresses1931-172_Al_Capone_13.xlsx. To support geospatial visualization, a KML file titled gps1931-172_Al_Capone.kml was generated for use in [Google Earth](https://earth.google.com/). A filtered version, gps_Illinois.kml, was also created by DFE HOLMES to isolate locations within the state of Illinois. End Note.)  
+The GPS coordinates 41.7624916,-87.6213316 (7244 Prairie Avenue, Chicago Illinois) were identified by CASTViz as a hotspot, indicating a high density of GPS activity. Figure 6 illustrates this location as a concentrated cluster of detections, consistent with sustained device presence or usage in the area.   (Examiner’s Note: According to Family Tree Now  (https://www.familytreenow.com/search/people/results?first=Al&amp;last=Capone&amp;citystatezip=Chicago,%20IL&amp;rid=asa&amp;smck=J25nUBu_7zMhesds44TNVg), Al CAPONE is listed as a resident at this address. See Figure 7. END NOTE)  
+The Cellebrite Reader report was exported under the filename  Prelimnary_Report_1931-172_Ex_13.ufdr. A malware scan was conducted using Cellebrite, and the results were incorporated into the UFDR report. No malware was detected.  
+A set of tagged photographs was saved under the filename Photos_Ex_13.pdf. The file contains visual documentation including bulk quantities of cigarettes loaded in vans, annotated map screenshots, handwritten notes, calculator display captures, and various other cigarette-related images.  
+Chats were exported as Chats_Ex_13.pdf.</t>
   </si>
   <si>
     <t xml:space="preserve">On 1931-01-05, DFE Holmes attended the warrant at 7244 Prairie Avenue, Chicago Illinois. DFE Holmes read a copy of the search warrant authorizing the digital forensic analysis of digital computers, -------------- and media.</t>
@@ -513,10 +547,10 @@
     <t xml:space="preserve">123 GB</t>
   </si>
   <si>
-    <t xml:space="preserve">mac_apt.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex1_AlCapone\Image\UFED Apple iPhone X (A1901) 1931_07_31 (002)\EvidenceCollection.ufdx</t>
+    <t xml:space="preserve">ILEAPP 2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCAPONE\1931-173-2-11_Ex1_AlCAPONE\Image\UFED Apple iPhone X (A1901) 1931_07_31 (002)\EvidenceCollection.ufdx</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172_13</t>
@@ -525,7 +559,7 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">This was an empty USB drive.</t>
+    <t xml:space="preserve">The USB drive was found to be empty; a comprehensive search for relevant files yielded no results.</t>
   </si>
   <si>
     <t xml:space="preserve">storage drive</t>
@@ -588,10 +622,10 @@
     <t xml:space="preserve">FTK 7.5.1.127</t>
   </si>
   <si>
-    <t xml:space="preserve">Arsenal Image Mounter 3.9.223, memdump, magnet encrypted disk detection, Kape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCapone\1931-173-2-11_Ex10_AlCapone\Image\Ex10.e01</t>
+    <t xml:space="preserve">Arsenal Image Mounter 3.9.223, memdump, magnet encrypted disk detection and Kape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCAPONE\1931-173-2-11_Ex10_AlCAPONE\Image\Ex10.e01</t>
   </si>
   <si>
     <t xml:space="preserve">1931-172_15</t>
@@ -612,10 +646,19 @@
     <t xml:space="preserve">case#</t>
   </si>
   <si>
+    <t xml:space="preserve">Al Capone</t>
+  </si>
+  <si>
     <t xml:space="preserve">subject</t>
   </si>
   <si>
+    <t xml:space="preserve">d/b/a Capone Inc</t>
+  </si>
+  <si>
     <t xml:space="preserve">agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Wilson #345</t>
   </si>
   <si>
     <t xml:space="preserve">forensics</t>
@@ -821,16 +864,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1145,11 +1184,11 @@
   <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="BF1" activeCellId="0" sqref="BF1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="BH13" activeCellId="0" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,377 +1255,379 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="71" style="2" width="8.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="71" style="1" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9" t="s">
+      <c r="AM2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AR2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AS2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9" t="s">
+      <c r="AT2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9" t="s">
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BC2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BD2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BE2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9" t="s">
+      <c r="BF2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BH2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="9" t="s">
-        <v>109</v>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="BM2" s="1" t="n">
         <v>555</v>
@@ -1594,167 +1635,169 @@
       <c r="BN2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR2" s="9"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="n">
+      <c r="O3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="n">
         <v>861536030696002</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AG3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AL3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AM3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AO3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9" t="s">
+      <c r="AP3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="AR3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9" t="s">
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9" t="s">
+      <c r="BA3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9" t="s">
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BJ3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BL3" s="9" t="s">
-        <v>109</v>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="BM3" s="1" t="n">
         <v>555</v>
@@ -1762,193 +1805,193 @@
       <c r="BN3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR3" s="9"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>113</v>
+      <c r="H4" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="T4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="8" t="n">
         <v>13125551212</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="8" t="n">
         <v>3525712230469390</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="8" t="n">
         <v>13125556912</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AF4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AG4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ4" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AO4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AS4" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AT4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9" t="s">
+      <c r="AU4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="AV4" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9" t="s">
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="BF4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BA4" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="BI4" s="9" t="s">
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="BJ4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK4" s="9" t="s">
+      <c r="BF4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="BL4" s="9" t="s">
-        <v>109</v>
+      <c r="BI4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL4" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="BM4" s="1" t="n">
         <v>555</v>
@@ -1956,317 +1999,319 @@
       <c r="BN4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ4" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR4" s="9"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="H5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9" t="s">
+      <c r="M5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AG5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AJ5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AL5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9" t="s">
+      <c r="AM5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="H6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9" t="s">
+      <c r="R6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AD6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AL6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AM6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AQ6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AO6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU6" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AT6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="AZ6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BC6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG6" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BD6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG6" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="BJ6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK6" s="9" t="s">
+      <c r="BH6" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="BL6" s="9" t="s">
-        <v>109</v>
+      <c r="BI6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="BJ6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL6" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="BM6" s="1" t="n">
         <v>555</v>
@@ -2274,120 +2319,120 @@
       <c r="BN6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ6" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR6" s="9"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9" t="s">
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
-      <c r="BO7" s="9"/>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="9"/>
-      <c r="BR7" s="9"/>
+      <c r="AL7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2417,500 +2462,500 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="12" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="12" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="12" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="11" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="11" width="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>72</v>
+      <c r="O2" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>73</v>
+      <c r="N3" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N4" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>75</v>
+      <c r="N4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>76</v>
+      <c r="N5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="R7" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y7" s="15" t="s">
+      <c r="X7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="15" t="s">
-        <v>218</v>
+      <c r="Z7" s="14" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13" t="s">
+      <c r="C8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13" t="s">
-        <v>100</v>
+      <c r="P8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="s">
+      <c r="A9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13" t="s">
-        <v>100</v>
+      <c r="P9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13" t="s">
+      <c r="A10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13" t="s">
-        <v>100</v>
+      <c r="P10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13" t="s">
+      <c r="B11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13" t="s">
-        <v>100</v>
+      <c r="P11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13" t="s">
+      <c r="A12" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>107</v>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13" t="s">
+      <c r="A13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13" t="s">
-        <v>100</v>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ForensicsReporter/input_case.xlsx
+++ b/ForensicsReporter/input_case.xlsx
@@ -452,7 +452,7 @@
   <si>
     <t xml:space="preserve">Al CAPONE gave Frank WILSON "193104" as the pincode to the phone. "AlCAPONE@gmail.com" with a password of "193104" was an email configured on this phone. This phone contained 176 MMS (multimedia messaging service) messages between AlCAPONE@gmail.com and 16185551211 (Alex) discussing having two ledgers (See Figure 5). One thread from the phone discusses There were message between AlCOPONE@gmail.com and accountant1492@gmail.com. Relevant files were exported. This phone was returned to the owner on 1931-10-02.
 Figure 5 – Ledgers message  
-According to the Cellebrite Preliminary Device Report (Preliminary_Device_Report.pdf), the “Find My” account is registered under the name Al CAPONE, with the associated Apple ID listed as AlCOPONE@gmail.com.  
+According to the Cellebrite Preliminary Device Report (Preliminary_Device_Report.pdf), the “Find My” account is registered under the name Al CAPONE, with the associated ID listed as AlCOPONE@gmail.com.  
 A variety of Cellebrite logs were exported:
   Accounts_Al_Capone_Ex_13.xlsx
   Calls_1931-172_Al_CaponeEx13.xlsx
@@ -467,7 +467,7 @@
   SearchedItems_1931-172_Al_CaponeEx13.xlsx
   Voicemails_1931-172_Al_CaponeEx13.xlsx
   WebHistory_1931-172_Al_Capone_Ex_13.xlsx.  
-The image was triaged using ILEAPP 2.3.0. Relevant artifacts and parsed data were extracted and compiled into a spreadsheet titled ILEAPP_Ex_13.xlsx for evidentiary review.
+The image was triaged using ALEAPP 2.3.0. Relevant artifacts and parsed data were extracted and compiled into a spreadsheet titled ALEAPP_Ex_13.xlsx for evidentiary review.
 A consolidated intelligence spreadsheet containing call logs, contacts, account details, notes, search history, GPS coordinates, chat records, and web activity was saved as _Intel_1931-172_Al_Capone_.xlsx_ for investigative reference.  
 A total of 554 call logs were identified. The associated WhatsApp Push Name is listed as Al CAPONE.  
 GPS data was exported as Locations_1931-172_Al_CaponeEx13.xlsx.   (Examiner’s Note: The coordinates were geocoded by DFE HOLMES into physical addresses and, where available, associated business names. This enriched dataset was saved as locations2addresses1931-172_Al_Capone_13.xlsx. To support geospatial visualization, a KML file titled gps1931-172_Al_Capone.kml was generated for use in [Google Earth](https://earth.google.com/). A filtered version, gps_Illinois.kml, was also created by DFE HOLMES to isolate locations within the state of Illinois. End Note.)  
@@ -547,7 +547,7 @@
     <t xml:space="preserve">123 GB</t>
   </si>
   <si>
-    <t xml:space="preserve">ILEAPP 2.3.0</t>
+    <t xml:space="preserve">ALEAPP 2.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">G:\Cases\1931-173-2-11_AlCAPONE\1931-173-2-11_Ex1_AlCAPONE\Image\UFED Apple iPhone X (A1901) 1931_07_31 (002)\EvidenceCollection.ufdx</t>
@@ -743,7 +743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,8 +772,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,7 +788,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -820,6 +825,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -864,7 +875,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -906,6 +917,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,7 +1003,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1184,11 +1203,11 @@
   <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BF1" activeCellId="0" sqref="BF1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH13" activeCellId="0" sqref="BH13"/>
+      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1984,8 +2003,8 @@
       <c r="BI4" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="BJ4" s="8" t="s">
-        <v>109</v>
+      <c r="BJ4" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="BK4" s="8" t="s">
         <v>164</v>
@@ -2158,7 +2177,7 @@
       <c r="G6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12" t="s">
         <v>172</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -2462,499 +2481,499 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="11" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="11" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="13" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="13" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="16" style="13" width="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="s">
+      <c r="P8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12" t="s">
+      <c r="P9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12" t="s">
+      <c r="P10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12" t="s">
+      <c r="P11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z12" s="12" t="s">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12" t="s">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14" t="s">
         <v>101</v>
       </c>
     </row>
